--- a/public/DataRpl/DataMuridRpl.xlsx
+++ b/public/DataRpl/DataMuridRpl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="600" windowWidth="14055" windowHeight="4050"/>
+    <workbookView xWindow="270" yWindow="540" windowWidth="20775" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,75 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>Daffa</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-02-27 at 18.20.17 (1).jpeg</t>
-  </si>
-  <si>
-    <t>laki-laki</t>
-  </si>
-  <si>
-    <t>XI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+  <si>
+    <t>daffa</t>
   </si>
   <si>
     <t>RPL</t>
   </si>
   <si>
-    <t>Lil Pluto</t>
-  </si>
-  <si>
-    <t>Muslim</t>
-  </si>
-  <si>
-    <t>Lil Jalan</t>
-  </si>
-  <si>
-    <t>Ortu</t>
-  </si>
-  <si>
-    <t>daffa@gmail.com</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Solo Rank Mythic</t>
-  </si>
-  <si>
-    <t>2022-03-16T04:07:28.000000Z</t>
-  </si>
-  <si>
-    <t>2022-03-16T04:07:29.000000Z</t>
-  </si>
-  <si>
-    <t>Adudu</t>
+    <t>JAWA</t>
+  </si>
+  <si>
+    <t>BANJAR</t>
+  </si>
+  <si>
+    <t>daf@gmail.com</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Murid</t>
   </si>
   <si>
     <t>perempuan</t>
   </si>
   <si>
     <t>XII</t>
-  </si>
-  <si>
-    <t>Lil Mars</t>
-  </si>
-  <si>
-    <t>Muslimin</t>
-  </si>
-  <si>
-    <t>Lil Angkasa</t>
-  </si>
-  <si>
-    <t>Ortuna</t>
-  </si>
-  <si>
-    <t>Adudu@gmail.com</t>
-  </si>
-  <si>
-    <t>Solo Rank Badak Hijau</t>
   </si>
 </sst>
 </file>
@@ -428,124 +386,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R2"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1111</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1">
+        <v>2009</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>123456789</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1">
-        <v>100</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>2222</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>123456789</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="J1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
